--- a/medicine/Mort/Le_Veilleur_de_nuit_(film,_1997)/Le_Veilleur_de_nuit_(film,_1997).xlsx
+++ b/medicine/Mort/Le_Veilleur_de_nuit_(film,_1997)/Le_Veilleur_de_nuit_(film,_1997).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Veilleur de nuit (Nightwatch) est un film américain réalisé par Ole Bornedal, sorti en 1997. Il s'agit du remake américain du film homonyme Le Veilleur de nuit tourné par le même réalisateur en 1994.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Martin, étudiant en droit, est embauché comme veilleur de nuit dans une morgue pour arrondir ses fins de mois. Mais un tueur en série adepte de la nécrophilie rode depuis quelque temps en ville, en assassinant des prostituées...
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre français : Le Veilleur de nuit
 Titre original : Nightwatch
@@ -587,7 +603,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ewan McGregor (VF : Cédric Dumond ; VQ : Gilbert Lachance) : Martin Bells
 Nick Nolte (VF : Michel Vigné ; VQ : Hubert Gagnon) : Inspecteur Thomas Albert Cray
